--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Crtam-Cadm1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Crtam-Cadm1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Crtam</t>
+  </si>
+  <si>
+    <t>Cadm1</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Crtam</t>
-  </si>
-  <si>
-    <t>Cadm1</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.01737466666666667</v>
+        <v>0.05032833333333334</v>
       </c>
       <c r="H2">
-        <v>0.052124</v>
+        <v>0.150985</v>
       </c>
       <c r="I2">
-        <v>0.1566400110589218</v>
+        <v>0.7147658790836833</v>
       </c>
       <c r="J2">
-        <v>0.1566400110589218</v>
+        <v>0.7147658790836833</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.134107666666666</v>
+        <v>2.152962333333333</v>
       </c>
       <c r="N2">
-        <v>12.402323</v>
+        <v>6.458887000000001</v>
       </c>
       <c r="O2">
-        <v>0.2013590292714859</v>
+        <v>0.1024890697041326</v>
       </c>
       <c r="P2">
-        <v>0.2013590292714859</v>
+        <v>0.1024890697041326</v>
       </c>
       <c r="Q2">
-        <v>0.07182874267244443</v>
+        <v>0.1083550059661111</v>
       </c>
       <c r="R2">
-        <v>0.646458684052</v>
+        <v>0.9751950536950001</v>
       </c>
       <c r="S2">
-        <v>0.03154088057189931</v>
+        <v>0.07325569000354321</v>
       </c>
       <c r="T2">
-        <v>0.03154088057189931</v>
+        <v>0.07325569000354322</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.01737466666666667</v>
+        <v>0.05032833333333334</v>
       </c>
       <c r="H3">
-        <v>0.052124</v>
+        <v>0.150985</v>
       </c>
       <c r="I3">
-        <v>0.1566400110589218</v>
+        <v>0.7147658790836833</v>
       </c>
       <c r="J3">
-        <v>0.1566400110589218</v>
+        <v>0.7147658790836833</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>0.013535</v>
       </c>
       <c r="O3">
-        <v>0.0002197487084628873</v>
+        <v>0.0002147722290923241</v>
       </c>
       <c r="P3">
-        <v>0.0002197487084628873</v>
+        <v>0.0002147722290923242</v>
       </c>
       <c r="Q3">
-        <v>7.838870444444444E-05</v>
+        <v>0.0002270646638888889</v>
       </c>
       <c r="R3">
-        <v>0.0007054983400000001</v>
+        <v>0.002043581975</v>
       </c>
       <c r="S3">
-        <v>3.442144012381045E-05</v>
+        <v>0.0001535118611299373</v>
       </c>
       <c r="T3">
-        <v>3.442144012381045E-05</v>
+        <v>0.0001535118611299373</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.01737466666666667</v>
+        <v>0.05032833333333334</v>
       </c>
       <c r="H4">
-        <v>0.052124</v>
+        <v>0.150985</v>
       </c>
       <c r="I4">
-        <v>0.1566400110589218</v>
+        <v>0.7147658790836833</v>
       </c>
       <c r="J4">
-        <v>0.1566400110589218</v>
+        <v>0.7147658790836833</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.970297666666667</v>
+        <v>3.553611</v>
       </c>
       <c r="N4">
-        <v>8.910893</v>
+        <v>10.660833</v>
       </c>
       <c r="O4">
-        <v>0.144673603841964</v>
+        <v>0.1691651915323982</v>
       </c>
       <c r="P4">
-        <v>0.144673603841964</v>
+        <v>0.1691651915323982</v>
       </c>
       <c r="Q4">
-        <v>0.05160793185911111</v>
+        <v>0.178847318945</v>
       </c>
       <c r="R4">
-        <v>0.464471386732</v>
+        <v>1.609625870505</v>
       </c>
       <c r="S4">
-        <v>0.02266167490573932</v>
+        <v>0.1209135068360142</v>
       </c>
       <c r="T4">
-        <v>0.02266167490573932</v>
+        <v>0.1209135068360142</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +708,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.01737466666666667</v>
+        <v>0.05032833333333334</v>
       </c>
       <c r="H5">
-        <v>0.052124</v>
+        <v>0.150985</v>
       </c>
       <c r="I5">
-        <v>0.1566400110589218</v>
+        <v>0.7147658790836833</v>
       </c>
       <c r="J5">
-        <v>0.1566400110589218</v>
+        <v>0.7147658790836833</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.42211</v>
+        <v>15.29566566666667</v>
       </c>
       <c r="N5">
-        <v>40.26633</v>
+        <v>45.886997</v>
       </c>
       <c r="O5">
-        <v>0.6537476181780872</v>
+        <v>0.7281309665343768</v>
       </c>
       <c r="P5">
-        <v>0.6537476181780872</v>
+        <v>0.7281309665343769</v>
       </c>
       <c r="Q5">
-        <v>0.2332046872133333</v>
+        <v>0.7698053602272222</v>
       </c>
       <c r="R5">
-        <v>2.09884218492</v>
+        <v>6.928248242045001</v>
       </c>
       <c r="S5">
-        <v>0.1024030341411594</v>
+        <v>0.5204431703829958</v>
       </c>
       <c r="T5">
-        <v>0.1024030341411594</v>
+        <v>0.5204431703829959</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,31 +770,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.08858666666666666</v>
+        <v>0.020084</v>
       </c>
       <c r="H6">
-        <v>0.26576</v>
+        <v>0.060252</v>
       </c>
       <c r="I6">
-        <v>0.7986464841343539</v>
+        <v>0.2852341209163167</v>
       </c>
       <c r="J6">
-        <v>0.7986464841343539</v>
+        <v>0.2852341209163167</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.134107666666666</v>
+        <v>2.152962333333333</v>
       </c>
       <c r="N6">
-        <v>12.402323</v>
+        <v>6.458887000000001</v>
       </c>
       <c r="O6">
-        <v>0.2013590292714859</v>
+        <v>0.1024890697041326</v>
       </c>
       <c r="P6">
-        <v>0.2013590292714859</v>
+        <v>0.1024890697041326</v>
       </c>
       <c r="Q6">
-        <v>0.3662268178311111</v>
+        <v>0.04324009550266667</v>
       </c>
       <c r="R6">
-        <v>3.29604136048</v>
+        <v>0.389160859524</v>
       </c>
       <c r="S6">
-        <v>0.1608146807763786</v>
+        <v>0.02923337970058936</v>
       </c>
       <c r="T6">
-        <v>0.1608146807763786</v>
+        <v>0.02923337970058937</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,31 +832,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.08858666666666666</v>
+        <v>0.020084</v>
       </c>
       <c r="H7">
-        <v>0.26576</v>
+        <v>0.060252</v>
       </c>
       <c r="I7">
-        <v>0.7986464841343539</v>
+        <v>0.2852341209163167</v>
       </c>
       <c r="J7">
-        <v>0.7986464841343539</v>
+        <v>0.2852341209163167</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,22 +871,22 @@
         <v>0.013535</v>
       </c>
       <c r="O7">
-        <v>0.0002197487084628873</v>
+        <v>0.0002147722290923241</v>
       </c>
       <c r="P7">
-        <v>0.0002197487084628873</v>
+        <v>0.0002147722290923242</v>
       </c>
       <c r="Q7">
-        <v>0.0003996735111111111</v>
+        <v>9.061231333333334E-05</v>
       </c>
       <c r="R7">
-        <v>0.0035970616</v>
+        <v>0.0008155108200000001</v>
       </c>
       <c r="S7">
-        <v>0.00017550153340695</v>
+        <v>6.126036796238686E-05</v>
       </c>
       <c r="T7">
-        <v>0.00017550153340695</v>
+        <v>6.126036796238687E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,31 +894,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.08858666666666666</v>
+        <v>0.020084</v>
       </c>
       <c r="H8">
-        <v>0.26576</v>
+        <v>0.060252</v>
       </c>
       <c r="I8">
-        <v>0.7986464841343539</v>
+        <v>0.2852341209163167</v>
       </c>
       <c r="J8">
-        <v>0.7986464841343539</v>
+        <v>0.2852341209163167</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.970297666666667</v>
+        <v>3.553611</v>
       </c>
       <c r="N8">
-        <v>8.910893</v>
+        <v>10.660833</v>
       </c>
       <c r="O8">
-        <v>0.144673603841964</v>
+        <v>0.1691651915323982</v>
       </c>
       <c r="P8">
-        <v>0.144673603841964</v>
+        <v>0.1691651915323982</v>
       </c>
       <c r="Q8">
-        <v>0.2631287692977778</v>
+        <v>0.071370723324</v>
       </c>
       <c r="R8">
-        <v>2.36815892368</v>
+        <v>0.642336509916</v>
       </c>
       <c r="S8">
-        <v>0.1155430650554309</v>
+        <v>0.04825168469638394</v>
       </c>
       <c r="T8">
-        <v>0.1155430650554309</v>
+        <v>0.04825168469638395</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,31 +956,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.08858666666666666</v>
+        <v>0.020084</v>
       </c>
       <c r="H9">
-        <v>0.26576</v>
+        <v>0.060252</v>
       </c>
       <c r="I9">
-        <v>0.7986464841343539</v>
+        <v>0.2852341209163167</v>
       </c>
       <c r="J9">
-        <v>0.7986464841343539</v>
+        <v>0.2852341209163167</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,276 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>13.42211</v>
+        <v>15.29566566666667</v>
       </c>
       <c r="N9">
-        <v>40.26633</v>
+        <v>45.886997</v>
       </c>
       <c r="O9">
-        <v>0.6537476181780872</v>
+        <v>0.7281309665343768</v>
       </c>
       <c r="P9">
-        <v>0.6537476181780872</v>
+        <v>0.7281309665343769</v>
       </c>
       <c r="Q9">
-        <v>1.189019984533333</v>
+        <v>0.3071981492493334</v>
       </c>
       <c r="R9">
-        <v>10.7011798608</v>
+        <v>2.764783343244</v>
       </c>
       <c r="S9">
-        <v>0.5221132367691375</v>
+        <v>0.207687796151381</v>
       </c>
       <c r="T9">
-        <v>0.5221132367691375</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.004959666666666667</v>
-      </c>
-      <c r="H10">
-        <v>0.014879</v>
-      </c>
-      <c r="I10">
-        <v>0.04471350480672431</v>
-      </c>
-      <c r="J10">
-        <v>0.04471350480672431</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>4.134107666666666</v>
-      </c>
-      <c r="N10">
-        <v>12.402323</v>
-      </c>
-      <c r="O10">
-        <v>0.2013590292714859</v>
-      </c>
-      <c r="P10">
-        <v>0.2013590292714859</v>
-      </c>
-      <c r="Q10">
-        <v>0.02050379599077778</v>
-      </c>
-      <c r="R10">
-        <v>0.184534163917</v>
-      </c>
-      <c r="S10">
-        <v>0.009003467923207924</v>
-      </c>
-      <c r="T10">
-        <v>0.009003467923207923</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.004959666666666667</v>
-      </c>
-      <c r="H11">
-        <v>0.014879</v>
-      </c>
-      <c r="I11">
-        <v>0.04471350480672431</v>
-      </c>
-      <c r="J11">
-        <v>0.04471350480672431</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M11">
-        <v>0.004511666666666666</v>
-      </c>
-      <c r="N11">
-        <v>0.013535</v>
-      </c>
-      <c r="O11">
-        <v>0.0002197487084628873</v>
-      </c>
-      <c r="P11">
-        <v>0.0002197487084628873</v>
-      </c>
-      <c r="Q11">
-        <v>2.237636277777778E-05</v>
-      </c>
-      <c r="R11">
-        <v>0.000201387265</v>
-      </c>
-      <c r="S11">
-        <v>9.825734932126769E-06</v>
-      </c>
-      <c r="T11">
-        <v>9.825734932126768E-06</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.004959666666666667</v>
-      </c>
-      <c r="H12">
-        <v>0.014879</v>
-      </c>
-      <c r="I12">
-        <v>0.04471350480672431</v>
-      </c>
-      <c r="J12">
-        <v>0.04471350480672431</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>2.970297666666667</v>
-      </c>
-      <c r="N12">
-        <v>8.910893</v>
-      </c>
-      <c r="O12">
-        <v>0.144673603841964</v>
-      </c>
-      <c r="P12">
-        <v>0.144673603841964</v>
-      </c>
-      <c r="Q12">
-        <v>0.01473168632744445</v>
-      </c>
-      <c r="R12">
-        <v>0.132585176947</v>
-      </c>
-      <c r="S12">
-        <v>0.006468863880793787</v>
-      </c>
-      <c r="T12">
-        <v>0.006468863880793786</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.004959666666666667</v>
-      </c>
-      <c r="H13">
-        <v>0.014879</v>
-      </c>
-      <c r="I13">
-        <v>0.04471350480672431</v>
-      </c>
-      <c r="J13">
-        <v>0.04471350480672431</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>13.42211</v>
-      </c>
-      <c r="N13">
-        <v>40.26633</v>
-      </c>
-      <c r="O13">
-        <v>0.6537476181780872</v>
-      </c>
-      <c r="P13">
-        <v>0.6537476181780872</v>
-      </c>
-      <c r="Q13">
-        <v>0.06656919156333332</v>
-      </c>
-      <c r="R13">
-        <v>0.5991227240699999</v>
-      </c>
-      <c r="S13">
-        <v>0.02923134726779048</v>
-      </c>
-      <c r="T13">
-        <v>0.02923134726779047</v>
+        <v>0.207687796151381</v>
       </c>
     </row>
   </sheetData>
